--- a/stock_historical_data/1mo/PARAS.NS.xlsx
+++ b/stock_historical_data/1mo/PARAS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2013,9 +2105,12 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,60 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B34" t="n">
+        <v>984.7999877929688</v>
+      </c>
+      <c r="C34" t="n">
+        <v>984.7999877929688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>984.7999877929688</v>
+      </c>
+      <c r="E34" t="n">
+        <v>984.7999877929688</v>
+      </c>
+      <c r="F34" t="n">
+        <v>984.7999877929688</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>22</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/PARAS.NS.xlsx
+++ b/stock_historical_data/1mo/PARAS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>2</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>1</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>2</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>1</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>2</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>1</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2111,6 +2203,9 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2269,7 +2370,12 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/PARAS.NS.xlsx
+++ b/stock_historical_data/1mo/PARAS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>1</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>2</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>1</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>2</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,477 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1408.699951171875</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1592.699951171875</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1247.75</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1286.300048828125</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>13774316</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1132.199951171875</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1272.349975585938</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>2316670</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>31</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1275</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1109.699951171875</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>1100361</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>35</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D38" t="n">
+        <v>895.9500122070312</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>2679765</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>40</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1104.800048828125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>925.0499877929688</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1074.599975585938</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>2674754</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>44</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1074.599975585938</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1173.800048828125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>980</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1008.200012207031</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2732402</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>48</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1010.950012207031</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1153.650024414062</v>
+      </c>
+      <c r="D41" t="n">
+        <v>958.5499877929688</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1135.900024414062</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>5393264</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1150.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D42" t="n">
+        <v>830</v>
+      </c>
+      <c r="E42" t="n">
+        <v>874.7000122070312</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>3787350</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B43" t="n">
+        <v>874.7000122070312</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1047.699951171875</v>
+      </c>
+      <c r="D43" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="E43" t="n">
+        <v>957.9000244140625</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>4996095</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
